--- a/medicine/Maladies infectieuses/Statistiques_sur_la_pandémie_de_Covid-19_au_Québec/Statistiques_sur_la_pandémie_de_Covid-19_au_Québec.xlsx
+++ b/medicine/Maladies infectieuses/Statistiques_sur_la_pandémie_de_Covid-19_au_Québec/Statistiques_sur_la_pandémie_de_Covid-19_au_Québec.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article contient les informations et les graphiques des statistiques sur la pandémie de Covid-19 au Québec.
 Les données officielles du gouvernement du Québec, diffusées quotidiennement sur le site web de l'INSPQ, sont valides pour le jour précédent, et non pour le jour courant. Par exemple, les données disponibles en date du 20 mai 2020 à 13 h sont les données valides pour le 19 mai 2020, et non le 20 mai 2020. Il n'est donc possible de mettre les données à jour, au mieux, que pour le jour précédent l'édition, jamais pour le jour courant.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,9 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Cas quotidiens
-Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.
-Cas totaux
+          <t>Cas quotidiens</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.</t>
         </is>
       </c>
@@ -528,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,14 +559,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Décès</t>
+          <t>Cas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Décès quotidiens
-Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.
-Décès totaux
+          <t>Cas totaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.</t>
         </is>
       </c>
@@ -561,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,15 +596,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Personnes hospitalisées ou aux soins intensifs</t>
+          <t>Décès</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Hospitalisation hors soins intensifs
-Sources: Fichiers CSV pour les anciennes définitions et les nouvelles définitions d'hospitalisation sur le site de l'INSPQ récupéré en date du 2022-10-30.
-À partir du 19 mai 2020, seuls les hôpitaux de soins généraux et spécialisés offrant des soins aigus sont considérés. Les centres hospitaliers dédiés à la santé mentale ou offrant principalement des soins de gériatrie, réadaptation et convalescence ont été retirés du décompte des hospitalisations, à l’exception du centre de services pour les aînés de Saint-Lambert qui a continué d’offrir des soins aigus jusqu'au 1er septembre 2020[1].
-Soins intensifs
+          <t>Décès quotidiens</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.</t>
         </is>
       </c>
@@ -595,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -610,15 +633,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nombre d'analyses de dépistage de la Covid-19 au Québec selon la date d'analyse du prélèvement</t>
+          <t>Décès</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>Décès totaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-Sources: Fichiers CSV pour les anciennes définitions et les nouvelles définitions d'hospitalisation sur le site de l'INSPQ récupéré en date du 2022-07-15.
-À partir du 19 mai 2020, seuls les hôpitaux de soins généraux et spécialisés offrant des soins aigus sont considérés. Les centres hospitaliers dédiés à la santé mentale ou offrant principalement des soins de gériatrie, réadaptation et convalescence ont été retirés du décompte des hospitalisations, à l’exception du centre de services pour les aînés de Saint-Lambert qui a continué d’offrir des soins aigus jusqu’au 1er septembre 2020[1].
-</t>
+Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.</t>
         </is>
       </c>
     </row>
@@ -628,7 +655,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,18 +670,193 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Personnes hospitalisées ou aux soins intensifs</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Hospitalisation hors soins intensifs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sources: Fichiers CSV pour les anciennes définitions et les nouvelles définitions d'hospitalisation sur le site de l'INSPQ récupéré en date du 2022-10-30.
+À partir du 19 mai 2020, seuls les hôpitaux de soins généraux et spécialisés offrant des soins aigus sont considérés. Les centres hospitaliers dédiés à la santé mentale ou offrant principalement des soins de gériatrie, réadaptation et convalescence ont été retirés du décompte des hospitalisations, à l’exception du centre de services pour les aînés de Saint-Lambert qui a continué d’offrir des soins aigus jusqu'au 1er septembre 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Personnes hospitalisées ou aux soins intensifs</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Soins intensifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Source: Fichier CSV sur le site de l'INSPQ récupéré en date du 2022-10-30.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nombre d'analyses de dépistage de la Covid-19 au Québec selon la date d'analyse du prélèvement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Sources: Fichiers CSV pour les anciennes définitions et les nouvelles définitions d'hospitalisation sur le site de l'INSPQ récupéré en date du 2022-07-15.
+À partir du 19 mai 2020, seuls les hôpitaux de soins généraux et spécialisés offrant des soins aigus sont considérés. Les centres hospitaliers dédiés à la santé mentale ou offrant principalement des soins de gériatrie, réadaptation et convalescence ont été retirés du décompte des hospitalisations, à l’exception du centre de services pour les aînés de Saint-Lambert qui a continué d’offrir des soins aigus jusqu’au 1er septembre 2020.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Différence entre chiffres annoncées et ceux corrigés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chiffres annoncés quotidiennement lors des conférences de presse du gouvernement indiquent les cas qui ont été déclarés et traités dans les dernières 24 heures, et non leur répartition dans les jours précédents l'annonce. Il y a une différence entre les deux qui peut être visible dans les deux graphiques plus bas. 
 Les deux graphiques présentent les décès causés par la Covid-19 au Québec entre le 24 février et le 7 août 2020. Le premier contient les annonces quotidiennes des décès, alors que le second montre le nombre de décès par jour tel que compilé par l'INSPQ au 11 octobre 2020. Les chiffres sont révisés régulièrement et les révisions vont jusqu'aux premiers jours de la pandémie au Québec.
-Chiffres annoncés quotidiennement
-Chiffres révisés par l'INPSQ (11 octobre 2020)
 </t>
         </is>
       </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Différence entre chiffres annoncées et ceux corrigés</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Chiffres annoncés quotidiennement</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Statistiques_sur_la_pandémie_de_Covid-19_au_Québec</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Statistiques_sur_la_pand%C3%A9mie_de_Covid-19_au_Qu%C3%A9bec</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Différence entre chiffres annoncées et ceux corrigés</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Chiffres révisés par l'INPSQ (11 octobre 2020)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
